--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3103215.420136399</v>
+        <v>3100670.827442116</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8328603.389020027</v>
+        <v>8328603.389020026</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>74.99298492937318</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.09783323005805</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666367</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>130.1712092340064</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>85.79332318808783</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>15.4022924851448</v>
       </c>
     </row>
     <row r="4">
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>52.2159462544349</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>212.573575257961</v>
       </c>
       <c r="F5" t="n">
-        <v>213.032155010505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.25188473404937</v>
+        <v>12.25188473404938</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>92.85788772760034</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372555</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>108.8889729789044</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>85.72784911912791</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
         <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6224718302218</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.91115760589147</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>19.86486348320086</v>
+        <v>72.89889574101096</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>216.412780105717</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>253.3649122384097</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1215,19 +1215,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>20.27697994470625</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>115.4092584582092</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>31.68046530976816</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>77.84303991612563</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>26.70391688093253</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206822</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>26.05480806223588</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>73.9322284908373</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187871</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>90.85912858529821</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>6.434538210426389</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3983,13 +3983,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.930370072261</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>108.9065924712584</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.7157213271124</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>293.4024563932567</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="C2" t="n">
-        <v>103.9826713767715</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="D2" t="n">
-        <v>103.9826713767715</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="E2" t="n">
-        <v>103.9826713767715</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912183</v>
+        <v>154.9708857107125</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330562</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330562</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678515</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058987</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079189</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644761</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123838</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985595</v>
+        <v>649.4845259985581</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020278</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652812</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>672.242026426227</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="S2" t="n">
-        <v>672.242026426227</v>
+        <v>540.7559564928854</v>
       </c>
       <c r="T2" t="n">
-        <v>672.242026426227</v>
+        <v>351.3361714764006</v>
       </c>
       <c r="U2" t="n">
-        <v>482.8222414097418</v>
+        <v>351.3361714764006</v>
       </c>
       <c r="V2" t="n">
-        <v>482.8222414097418</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="W2" t="n">
-        <v>482.8222414097418</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="X2" t="n">
-        <v>482.8222414097418</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="Y2" t="n">
-        <v>482.8222414097418</v>
+        <v>161.9163864599159</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>581.8870116452131</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>407.4339823640861</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>407.4339823640861</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>248.1965273586306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>101.6619693855156</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>101.6619693855156</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772652</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140251</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.500058754661</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476359</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017076</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652812</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652812</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652812</v>
+        <v>598.8192732198758</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652812</v>
+        <v>409.399488203391</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652812</v>
+        <v>219.9797031869063</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652812</v>
+        <v>219.9797031869063</v>
       </c>
       <c r="W3" t="n">
-        <v>750.1023486652812</v>
+        <v>30.55991817042155</v>
       </c>
       <c r="X3" t="n">
-        <v>750.1023486652812</v>
+        <v>30.55991817042155</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.1023486652812</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702829038</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702829038</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702829038</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702829038</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702829038</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>67.74542702829038</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.0396705623019</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170745</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396374</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829038</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829038</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829038</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829038</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829038</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829038</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829038</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702829038</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702829038</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702829038</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702829038</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1375.134160567775</v>
+        <v>731.3583444302221</v>
       </c>
       <c r="C5" t="n">
-        <v>1006.171643627363</v>
+        <v>362.3958274898104</v>
       </c>
       <c r="D5" t="n">
-        <v>647.9059450206125</v>
+        <v>362.3958274898104</v>
       </c>
       <c r="E5" t="n">
-        <v>262.1176924223683</v>
+        <v>147.6750444009609</v>
       </c>
       <c r="F5" t="n">
-        <v>46.9336974622622</v>
+        <v>140.7295436517575</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675778</v>
+        <v>128.353902506253</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675778</v>
+        <v>128.353902506253</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675778</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017223</v>
+        <v>111.6705539017225</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746987</v>
+        <v>277.9807166746982</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030777</v>
+        <v>521.2049416030773</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709203</v>
+        <v>823.5081935709193</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582755</v>
+        <v>1135.316836582753</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079243</v>
+        <v>1416.413635079241</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332762</v>
+        <v>1621.82224833276</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837889</v>
+        <v>1727.902815837886</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837889</v>
+        <v>1727.902815837886</v>
       </c>
       <c r="S5" t="n">
-        <v>1727.902815837889</v>
+        <v>1586.994975598235</v>
       </c>
       <c r="T5" t="n">
-        <v>1727.902815837889</v>
+        <v>1375.13564073467</v>
       </c>
       <c r="U5" t="n">
-        <v>1727.902815837889</v>
+        <v>1121.497676406034</v>
       </c>
       <c r="V5" t="n">
-        <v>1727.902815837889</v>
+        <v>1121.497676406034</v>
       </c>
       <c r="W5" t="n">
-        <v>1375.134160567775</v>
+        <v>1121.497676406034</v>
       </c>
       <c r="X5" t="n">
-        <v>1375.134160567775</v>
+        <v>1121.497676406034</v>
       </c>
       <c r="Y5" t="n">
-        <v>1375.134160567775</v>
+        <v>731.3583444302221</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>144.5469179116108</v>
+        <v>295.6048725869028</v>
       </c>
       <c r="C6" t="n">
-        <v>34.55805631675778</v>
+        <v>121.1518433057758</v>
       </c>
       <c r="D6" t="n">
-        <v>34.55805631675778</v>
+        <v>121.1518433057758</v>
       </c>
       <c r="E6" t="n">
-        <v>34.55805631675778</v>
+        <v>121.1518433057758</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675778</v>
+        <v>121.1518433057758</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675778</v>
+        <v>121.1518433057758</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675778</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675778</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787564</v>
+        <v>61.66788464787548</v>
       </c>
       <c r="K6" t="n">
-        <v>186.157723980607</v>
+        <v>186.1577239806067</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189991</v>
+        <v>399.8722171189985</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223519</v>
+        <v>668.623818522351</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352505</v>
+        <v>958.8971200352491</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228322</v>
+        <v>1202.22068622832</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639512</v>
+        <v>1378.17623363951</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906553</v>
+        <v>1445.878660906551</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906553</v>
+        <v>1445.878660906551</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906553</v>
+        <v>1303.087768902146</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.878660906553</v>
+        <v>1107.547150621901</v>
       </c>
       <c r="U6" t="n">
-        <v>1217.76351886211</v>
+        <v>879.4320085774576</v>
       </c>
       <c r="V6" t="n">
-        <v>982.6114106303671</v>
+        <v>879.4320085774576</v>
       </c>
       <c r="W6" t="n">
-        <v>728.3740539021655</v>
+        <v>879.4320085774576</v>
       </c>
       <c r="X6" t="n">
-        <v>520.5225536966327</v>
+        <v>671.5805083719248</v>
       </c>
       <c r="Y6" t="n">
-        <v>312.7622549316788</v>
+        <v>463.8202096069709</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>349.7535309159023</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="C7" t="n">
-        <v>349.7535309159023</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="D7" t="n">
-        <v>349.7535309159023</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="E7" t="n">
-        <v>349.7535309159023</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="F7" t="n">
-        <v>202.8635834179919</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675778</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675778</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675778</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675778</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574722</v>
+        <v>64.24066662574705</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584121</v>
+        <v>132.1299861584118</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347981</v>
+        <v>206.9680378347977</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195379</v>
+        <v>287.8841338195373</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934732</v>
+        <v>342.3101561934724</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858021</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858021</v>
+        <v>332.5350520040927</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858021</v>
+        <v>332.5350520040927</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858021</v>
+        <v>332.5350520040927</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858021</v>
+        <v>108.1933045400011</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495858021</v>
+        <v>108.1933045400011</v>
       </c>
       <c r="V7" t="n">
-        <v>349.7535309159023</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="W7" t="n">
-        <v>349.7535309159023</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="X7" t="n">
-        <v>349.7535309159023</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="Y7" t="n">
-        <v>349.7535309159023</v>
+        <v>34.55805631675773</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>687.1920092600683</v>
+        <v>369.7061514285186</v>
       </c>
       <c r="C8" t="n">
-        <v>318.2294923196566</v>
+        <v>369.7061514285186</v>
       </c>
       <c r="D8" t="n">
-        <v>62.30533854348518</v>
+        <v>369.7061514285186</v>
       </c>
       <c r="E8" t="n">
-        <v>62.30533854348518</v>
+        <v>369.7061514285186</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428171</v>
+        <v>362.7606506793151</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809305</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H8" t="n">
         <v>43.36919653809305</v>
@@ -4802,22 +4802,22 @@
         <v>43.36919653809305</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K8" t="n">
         <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578729</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
         <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545595</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
         <v>2021.630958172446</v>
@@ -4832,22 +4832,22 @@
         <v>2168.459826904652</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904652</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904652</v>
+        <v>1704.678664719077</v>
       </c>
       <c r="V8" t="n">
-        <v>1837.396939561082</v>
+        <v>1704.678664719077</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.396939561082</v>
+        <v>1351.910009448963</v>
       </c>
       <c r="X8" t="n">
-        <v>1463.931181300002</v>
+        <v>978.4442511878829</v>
       </c>
       <c r="Y8" t="n">
-        <v>1073.79184932419</v>
+        <v>588.3049192120711</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>693.0104463829875</v>
+        <v>217.8222258192201</v>
       </c>
       <c r="C9" t="n">
-        <v>518.5574171018606</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="D9" t="n">
-        <v>369.6230074406093</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="E9" t="n">
-        <v>210.3855524351538</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="F9" t="n">
-        <v>63.85099446203876</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="G9" t="n">
-        <v>63.85099446203876</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H9" t="n">
         <v>43.36919653809305</v>
@@ -4905,28 +4905,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.227047333487</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T9" t="n">
-        <v>1766.227047333487</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U9" t="n">
-        <v>1766.227047333487</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V9" t="n">
-        <v>1531.074939101744</v>
+        <v>1055.886718537977</v>
       </c>
       <c r="W9" t="n">
-        <v>1276.837582373542</v>
+        <v>801.6493618097749</v>
       </c>
       <c r="X9" t="n">
-        <v>1068.986082168009</v>
+        <v>593.797861604242</v>
       </c>
       <c r="Y9" t="n">
-        <v>861.2257834030556</v>
+        <v>386.0375628392881</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="C10" t="n">
-        <v>488.2888770307322</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="D10" t="n">
-        <v>338.1722376183965</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2591440360034</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="F10" t="n">
         <v>43.36919653809305</v>
@@ -4984,28 +4984,28 @@
         <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470405991</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470405991</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470405991</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470405991</v>
+        <v>121.9985297867048</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809305</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5066,13 +5066,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123002</v>
@@ -5084,7 +5084,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>923.067041434951</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1550.665004989557</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2102.574735228844</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>565.7099969556945</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>415.5933575433587</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>267.6802639609656</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F13" t="n">
-        <v>120.7903164630552</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5242,7 +5242,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5270,7 +5270,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5279,16 +5279,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5303,10 +5303,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>139.2347658407948</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273903</v>
+        <v>139.2347658407948</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>634.5603720565533</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5507,31 +5507,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>417.9651836029417</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>913.2907898187003</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>913.2907898187003</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5753,16 +5753,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5887,19 +5887,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5969,37 +5969,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273903</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6124,22 +6124,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>119.290296770379</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>119.290296770379</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6740,7 +6740,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,25 +7014,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7072,19 +7072,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7254,10 +7254,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
         <v>680.0291294438176</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7488,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
         <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L45" t="n">
         <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048574</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>138.8202214113363</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>124.9899273367997</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>66.36248435538658</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
     </row>
     <row r="41">
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>210.9709121168619</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>39.70888054695399</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.5789915191115</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>720891.9298890511</v>
+        <v>720891.929889051</v>
       </c>
     </row>
   </sheetData>
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312483</v>
+        <v>718411.5486312486</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312476</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312484</v>
+        <v>718411.5486312486</v>
       </c>
       <c r="E2" t="n">
         <v>706253.2747287552</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="G2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="H2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="I2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="K2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="M2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="J2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287557</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>706253.2747287554</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287555</v>
       </c>
       <c r="O2" t="n">
         <v>706253.2747287554</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208459</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253131</v>
+        <v>270592.362025313</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231917</v>
+        <v>115410.0540231923</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742652</v>
+        <v>601443.207574265</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,19 +26381,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.967965428979369e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854471</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881991</v>
+        <v>62913.63765881988</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197457</v>
+        <v>27875.25362197471</v>
       </c>
       <c r="M3" t="n">
         <v>157146.380551598</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341298</v>
+        <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263459</v>
+        <v>206604.4229263461</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687971</v>
       </c>
       <c r="F4" t="n">
+        <v>15436.6400068797</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15436.64000687972</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15436.64000687969</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15436.64000687969</v>
+      </c>
+      <c r="J4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="G4" t="n">
-        <v>15436.64000687968</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15436.64000687966</v>
-      </c>
       <c r="K4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687964</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="M4" t="n">
         <v>15436.64000687966</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687969</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687969</v>
+        <v>15436.6400068797</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.8004116136</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936827</v>
+        <v>76435.73471936822</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-208467.7191353409</v>
+        <v>-208467.7191353402</v>
       </c>
       <c r="C6" t="n">
-        <v>164779.0289602203</v>
+        <v>164779.0289602206</v>
       </c>
       <c r="D6" t="n">
-        <v>343599.4226632867</v>
+        <v>343599.4226632863</v>
       </c>
       <c r="E6" t="n">
-        <v>-11749.10267629674</v>
+        <v>-11783.84060173223</v>
       </c>
       <c r="F6" t="n">
-        <v>589694.1048979687</v>
+        <v>589659.3669725329</v>
       </c>
       <c r="G6" t="n">
-        <v>589694.1048979686</v>
+        <v>589659.3669725329</v>
       </c>
       <c r="H6" t="n">
-        <v>589694.1048979686</v>
+        <v>589659.3669725327</v>
       </c>
       <c r="I6" t="n">
-        <v>589694.1048979687</v>
+        <v>589659.3669725329</v>
       </c>
       <c r="J6" t="n">
-        <v>540629.1601694241</v>
+        <v>540594.4222439884</v>
       </c>
       <c r="K6" t="n">
-        <v>526780.467239149</v>
+        <v>526745.7293137133</v>
       </c>
       <c r="L6" t="n">
-        <v>561818.8512759942</v>
+        <v>561784.1133505582</v>
       </c>
       <c r="M6" t="n">
-        <v>432547.7243463705</v>
+        <v>432512.9864209349</v>
       </c>
       <c r="N6" t="n">
-        <v>589694.1048979687</v>
+        <v>589659.3669725329</v>
       </c>
       <c r="O6" t="n">
-        <v>589694.1048979686</v>
+        <v>589659.3669725329</v>
       </c>
       <c r="P6" t="n">
-        <v>589694.1048979686</v>
+        <v>589659.3669725329</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.469940912905</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950626</v>
+        <v>758.899629295062</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594722</v>
+        <v>431.9757039594716</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261631</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.469940912905</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821576</v>
+        <v>210.4296883821575</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262153</v>
+        <v>94.8110352426221</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039896</v>
+        <v>514.2648358039894</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931519</v>
+        <v>244.4501167931518</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666909</v>
+        <v>110.1392527666915</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734853</v>
+        <v>630.5933313734851</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,22 +27027,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931519</v>
+        <v>244.4501167931518</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666909</v>
+        <v>110.1392527666915</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734853</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931519</v>
+        <v>244.4501167931518</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666909</v>
+        <v>110.1392527666915</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734853</v>
+        <v>630.5933313734851</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971603</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046873</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>331.8830608123383</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>28.60460395604673</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988691</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871004</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,31 +27455,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>15.04843416265187</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409146</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265831</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846313</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>7.884010625681384</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>190.2804032921595</v>
       </c>
     </row>
     <row r="4">
@@ -27552,16 +27552,16 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>101.2177245773846</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708666</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825411</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402843</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,13 +27576,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709376</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159719</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106903</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27591,7 +27591,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>234.0491352390158</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>169.3567948143008</v>
       </c>
       <c r="F5" t="n">
-        <v>193.8438907312064</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714734</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760026</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425884</v>
+        <v>23.94240680425898</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372554</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>63.81952600941131</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27710,10 +27710,10 @@
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.4703783524613</v>
+        <v>10.74252923333339</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937507</v>
+        <v>43.32085084937511</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074782</v>
+        <v>44.33060630074789</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27783,10 +27783,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
         <v>150.0598964836597</v>
@@ -27795,7 +27795,7 @@
         <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304037</v>
+        <v>30.24193919304044</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589139</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>115.7603165166223</v>
@@ -27825,13 +27825,13 @@
         <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
-        <v>222.0983299894507</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913143</v>
+        <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
-        <v>232.2727798406272</v>
+        <v>179.238747582817</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>166.3210615577636</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>101.3181293822733</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>78.16360657708299</v>
@@ -27904,16 +27904,16 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -27935,19 +27935,19 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>74.22383331714889</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
         <v>36.29946757904885</v>
@@ -27977,19 +27977,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>117.391328691216</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>135.5663557888597</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28056,7 +28056,7 @@
         <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>197.1876907596159</v>
@@ -28065,10 +28065,10 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>174.2946034077024</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>7.394985773160066e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.231653232955236e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30703,13 +30703,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>8.038590482916834e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077003</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954487</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043125</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655545</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528641</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672895</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470276</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470027</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622682</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244297</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151094</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974685</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619227</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924588</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590854</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340084</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621738</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405035</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975332</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829656</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292676</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628874</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936716</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550082</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288822</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820373</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390168</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445827</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620023</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639164</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.925421811142</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276992</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682167</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604416</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820539</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784866</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647913</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147604</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181398</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085676</v>
+        <v>3.050852781085674</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429369</v>
+        <v>31.24454604429367</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428057</v>
+        <v>117.6180018428056</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286707</v>
+        <v>258.9373162286705</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520274</v>
+        <v>388.0799144520271</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511783</v>
+        <v>481.4474502511779</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968107</v>
+        <v>535.7030533968102</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610704</v>
+        <v>544.37128886107</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191497</v>
+        <v>514.0343715191493</v>
       </c>
       <c r="P5" t="n">
-        <v>438.716443486097</v>
+        <v>438.7164434860966</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634661</v>
+        <v>329.4577782634659</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098733</v>
+        <v>191.6431310098731</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898993</v>
+        <v>69.52130774898987</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920256</v>
+        <v>13.35510804920255</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868541</v>
+        <v>0.2440682224868539</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030889</v>
+        <v>1.632350146030888</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403517</v>
+        <v>15.76506588403516</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062493</v>
+        <v>56.20152915062489</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475938</v>
+        <v>154.2212916475937</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316634</v>
+        <v>263.5887514316632</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721894</v>
+        <v>354.4276051721891</v>
       </c>
       <c r="M6" t="n">
-        <v>413.600297965809</v>
+        <v>413.6002979658087</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468672</v>
+        <v>424.5470671468668</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374458</v>
+        <v>388.3776244374455</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872494</v>
+        <v>311.7072835872492</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.36806425475</v>
+        <v>208.3680642547499</v>
       </c>
       <c r="R6" t="n">
         <v>101.3488976632161</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947725</v>
+        <v>30.32018801947722</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378889</v>
+        <v>6.579516597378885</v>
       </c>
       <c r="U6" t="n">
         <v>0.1073914569757164</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236998</v>
+        <v>1.368507528236997</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377986</v>
+        <v>12.16727602377985</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734537</v>
+        <v>41.15475366734534</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635574</v>
+        <v>96.75348224635567</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260803</v>
+        <v>158.9956928260802</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162533</v>
+        <v>203.4597465162532</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399141</v>
+        <v>214.519775539914</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528491</v>
+        <v>209.418974752849</v>
       </c>
       <c r="O7" t="n">
-        <v>193.432318627535</v>
+        <v>193.4323186275349</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650515001</v>
+        <v>165.5147650515</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235545</v>
+        <v>114.5938440235544</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054718</v>
+        <v>61.53307486054714</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391204</v>
+        <v>23.84935392391202</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830808</v>
+        <v>5.847259438830804</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656362</v>
+        <v>0.07464586517656356</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,34 +31841,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>552.0015769888932</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>170.9292585737937</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>398.1179220955534</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>312.3207226334985</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32549,13 +32549,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>172.7144981745678</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,31 +33020,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>150.7833302198383</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>746.4857620875799</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,28 +33734,28 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>364.3208035245835</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33974,13 +33974,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34208,25 +34208,25 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>624.2063432190395</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34454,7 +34454,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868222</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788355</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973023</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197549</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504118</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405815</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916013</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065995</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781483</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606293</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755149</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996323</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848231</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855714</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765007</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646089</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061166</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520837</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400637</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.8914117019844</v>
+        <v>77.89141170198417</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070469</v>
+        <v>167.9900634070466</v>
       </c>
       <c r="L5" t="n">
-        <v>245.681035281191</v>
+        <v>245.6810352811907</v>
       </c>
       <c r="M5" t="n">
-        <v>305.356820169538</v>
+        <v>305.3568201695375</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644795</v>
+        <v>314.958225264479</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974629</v>
+        <v>283.9361600974626</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308274</v>
+        <v>207.4834477308271</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890166</v>
+        <v>107.1520883890164</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092714</v>
+        <v>27.38366498092702</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573044</v>
+        <v>125.7473124573042</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923152</v>
+        <v>215.873225392315</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437907</v>
+        <v>271.4662640437904</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635338</v>
+        <v>293.2053550635335</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930014</v>
+        <v>245.7813799930011</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729192</v>
+        <v>177.732876172919</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872852</v>
+        <v>68.38629016872838</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554489</v>
+        <v>29.98243465554478</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501506</v>
+        <v>68.57507023501492</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230907</v>
+        <v>75.5939915923089</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761593</v>
+        <v>81.73343028761576</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569222</v>
+        <v>54.97578017569208</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235251</v>
+        <v>27.78676100235239</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>418.027169574563</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>44.09163190712702</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>259.5635423156792</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>174.4792836591395</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>23.94570355317166</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>615.1440500042467</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>224.339029438562</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38102,7 +38102,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
